--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>991488.8204323053</v>
+        <v>989601.2389159034</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>132.6301997610084</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>106.7209824064456</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>135.0393428231427</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>247.4073273774619</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>380.0797692193805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.546296656423063</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>57.50343408519505</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.0588731052221</v>
+        <v>298.3540381929898</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.46815663221277</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="D13" t="n">
-        <v>133.821715542094</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.6175690697014</v>
+        <v>33.35146980185863</v>
       </c>
     </row>
     <row r="17">
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>78.96695423238017</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>29.18937547121085</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>66.6042844044767</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>59.77945773664999</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.45928146503095</v>
+        <v>105.657132943749</v>
       </c>
     </row>
     <row r="26">
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065129</v>
+        <v>29.18937547121064</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.01186072229608</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>45.40012322653506</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523578</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3013,10 +3013,10 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692858</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>944.9169614058544</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.15301396162</v>
+        <v>586.651262799104</v>
       </c>
       <c r="E2" t="n">
-        <v>752.3647613633757</v>
+        <v>586.651262799104</v>
       </c>
       <c r="F2" t="n">
-        <v>341.3788565737681</v>
+        <v>175.6653580094964</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>161.7419539480873</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>161.7419539480873</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782191</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1114.546934559991</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>728.7586819617466</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>721.8131812125431</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>303.84937311073</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>670.0447073527018</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6275373157412</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6275373157412</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6275373157412</v>
+        <v>62.57560470564027</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.6828813766</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.94664591678</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4896,34 +4896,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>717.5550886183407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>717.5550886183407</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>717.5550886183407</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>717.5550886183407</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>717.5550886183407</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="W10" t="n">
-        <v>428.1379185813802</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="X10" t="n">
-        <v>428.1379185813802</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>428.1379185813802</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113633</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.603879777666</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O12" t="n">
-        <v>2037.143944996363</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.1935825831085</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C13" t="n">
-        <v>527.1935825831085</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>755.183133481126</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>527.1935825831085</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.1935825831085</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>154.3878371814097</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.4843764226424</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947357</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947357</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344996</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364823</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.4843764226424</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
@@ -5525,10 +5525,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>929.5163332765953</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>493.0701069575857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>493.0701069575857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>493.0701069575857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>345.1570133751926</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5692,7 +5692,7 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>674.7185717878255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.7185717878255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.8780707889955</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>612.9418878610886</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>462.8252484487529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>314.9121548663597</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>314.9121548663597</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.867621687013</v>
+        <v>385.589933001384</v>
       </c>
       <c r="X22" t="n">
-        <v>781.8780707889955</v>
+        <v>157.6003821033667</v>
       </c>
       <c r="Y22" t="n">
-        <v>781.8780707889955</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>712.8170085027679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>712.8170085027679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.787631771461</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="X25" t="n">
-        <v>981.7980808734429</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="Y25" t="n">
-        <v>894.4654733330076</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531122</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387938</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.722591120503</v>
+        <v>439.5324299542173</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739668</v>
+        <v>326.3571123076811</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430018</v>
+        <v>326.3571123076811</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430018</v>
+        <v>234.2048840066589</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>143.0758017901192</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>143.0758017901192</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
@@ -6622,7 +6622,7 @@
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667509</v>
@@ -6634,7 +6634,7 @@
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.6804289818923</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>730.4517433652456</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652466</v>
+        <v>565.4200295030862</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>157.2587625717277</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>306.3284467737875</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802515</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.28419175141</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802515</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7412,10 +7412,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
@@ -7552,28 +7552,28 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,16 +7734,16 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665167</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108336</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525408</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254965</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649698</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>9.900512684485989</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>87.16935584025424</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>15.83804904622845</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>43.6598726146251</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>272.8719470256798</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.2863157167178</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>18.73797368291333</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711664</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>18.73797368291326</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>85.30006332127817</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,22 +11382,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>50.62661940943656</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>234.4116509503166</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>133.8953512967693</v>
       </c>
       <c r="D13" t="n">
-        <v>14.79375747611837</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.96708428239339</v>
+        <v>185.2331835502362</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>66.45409379055107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,22 +24127,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.88928405890088</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154448</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.1253718870638</v>
+        <v>112.9275204083457</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518763</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.61686283108418</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>48.31044851244406</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>991830.5252751356</v>
+        <v>991830.5252751358</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>991830.5252751358</v>
+        <v>991830.5252751356</v>
       </c>
     </row>
     <row r="11">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377088</v>
       </c>
       <c r="F2" t="n">
         <v>391029.0597377089</v>
       </c>
       <c r="G2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.059737709</v>
       </c>
       <c r="H2" t="n">
         <v>391029.0597377088</v>
@@ -26335,25 +26335,25 @@
         <v>391029.0597377088</v>
       </c>
       <c r="J2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377088</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452706</v>
+        <v>406822.1373452707</v>
       </c>
       <c r="L2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="M2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="N2" t="n">
         <v>410520.8849321422</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>410520.8849321422</v>
       </c>
-      <c r="N2" t="n">
-        <v>410520.8849321423</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410520.8849321423</v>
-      </c>
       <c r="P2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.8849321422</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284558</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26427,13 +26427,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.66962143908</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563562</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275951</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275958</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275956</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419081.0305970351</v>
+        <v>-419081.030597035</v>
       </c>
       <c r="C6" t="n">
-        <v>170886.8486175096</v>
+        <v>170886.8486175095</v>
       </c>
       <c r="D6" t="n">
         <v>170886.8486175096</v>
       </c>
       <c r="E6" t="n">
-        <v>-241163.9723093428</v>
+        <v>-241261.4314353153</v>
       </c>
       <c r="F6" t="n">
-        <v>283996.0641675532</v>
+        <v>283898.605041581</v>
       </c>
       <c r="G6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.6050415811</v>
       </c>
       <c r="H6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.6050415809</v>
       </c>
       <c r="I6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.605041581</v>
       </c>
       <c r="J6" t="n">
-        <v>107572.8449749602</v>
+        <v>107475.385848988</v>
       </c>
       <c r="K6" t="n">
-        <v>232821.0313765666</v>
+        <v>232802.5376386323</v>
       </c>
       <c r="L6" t="n">
-        <v>264998.4154484903</v>
+        <v>264998.4154484904</v>
       </c>
       <c r="M6" t="n">
         <v>140540.3070155201</v>
@@ -26558,10 +26558,10 @@
         <v>275341.3222493573</v>
       </c>
       <c r="O6" t="n">
-        <v>275341.3222493573</v>
+        <v>275341.3222493572</v>
       </c>
       <c r="P6" t="n">
-        <v>231178.7169465118</v>
+        <v>231178.7169465116</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>281.1539702597867</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>45.21033383841562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,13 +27433,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>32.27045943590821</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>232.0474423175574</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>76.51544538689529</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.15816943667312</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>171.2856835255142</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
@@ -27819,7 +27819,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>194.634209238633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.1790655508314</v>
+        <v>87.88390046306381</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>136.1970353479451</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>169.2138872808328</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>343.0950860824988</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>294.2627707717789</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>57.74822800113513</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>250.7532875461497</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35814,16 +35814,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>522.1296519817042</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>479.7106927671841</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>546.4549645786756</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>60.64815263782002</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303347</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>267.9956786389376</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686865</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,13 +37868,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>418.4946367192911</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>361.0509964599028</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>516.7753531914248</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
